--- a/assets/sampleExcel/sample(moshaver).xlsx
+++ b/assets/sampleExcel/sample(moshaver).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C7A3E-70AD-4237-9CE3-E1EBAB2FA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DF398-CDA2-4F6A-BDD6-6BEDF2BD58ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
@@ -8318,7 +8318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8333,16 +8333,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8350,26 +8370,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8F21D493-6CFE-4DE3-B2AF-5C7EF64E75F9}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8383,21 +8411,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}" name="Table152" displayName="Table152" ref="F1:F2" insertRow="1" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="F1:F2" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}" name="Table1524" displayName="Table1524" ref="F1:F200" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="F1:F200" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{07D75668-1E55-4836-A8A8-AD871EF10F9A}" name="استان"/>
+    <tableColumn id="1" xr3:uid="{14EFB7CC-DBA1-4559-87C3-0C0370CEBB47}" name="استان"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}" name="Table163" displayName="Table163" ref="G1:H2" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="G1:H2" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4BD35083-829B-4283-B854-2629EE51EABC}" name="شهر"/>
-    <tableColumn id="3" xr3:uid="{9015AE4B-062F-442C-B3C2-772F07EE73D5}" name="province" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}" name="Table1636" displayName="Table1636" ref="G1:G200" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="G1:G200" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C4779FF2-84F8-40D4-855D-D7E6546EEB1A}" name="شهر"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8796,10 +8823,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B2D121-DBCD-427C-A027-144EEEC0F342}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8808,11 +8835,11 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8834,340 +8861,1955 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="3" t="s">
         <v>2744</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="4" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J10" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J11" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J12" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J13" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J14" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J15" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J16" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J17" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J18" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J19" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J20" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J21" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J22" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J23" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J24" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J25" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J26" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J27" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J28" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J29" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J30" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J31" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J33" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J34" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J35" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J36" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J37" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J38" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J39" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J40" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J41" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J42" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J43" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J44" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J45" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J46" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J47" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J48" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J49" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J50" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J51" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J52" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J53" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J54" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J55" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J56" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J57" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J58" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J59" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J60" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J61" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J62" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J63" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J64" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J65" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J66" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J67" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J68" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
+      <c r="J69" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J70" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J71" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J72" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J73" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J74" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J75" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J77" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J78" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J79" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J80" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J81" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J83" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J85" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J87" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J89" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J91" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J93" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J95" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J97" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J99" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J101" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J103" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J105" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J107" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J109" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J111" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J113" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J115" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J117" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J118" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J119" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J120" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J121" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J122" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J123" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J124" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J125" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J126" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J127" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J128" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J129" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J130" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J131" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J132" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J133" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J134" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J135" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J136" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J137" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J138" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J139" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J140" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J141" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J142" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J143" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J144" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J145" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J146" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J147" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J148" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J149" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J150" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J151" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J152" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J153" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J154" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J155" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J156" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J157" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J158" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J159" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J160" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J161" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J162" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J163" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J164" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J165" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J166" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J167" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J168" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J169" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J170" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J171" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J172" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J173" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J174" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J175" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J176" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J177" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J178" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J179" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J180" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J181" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J182" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J183" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J184" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J185" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J186" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J187" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J188" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J189" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J190" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J191" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J192" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J193" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J194" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J195" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J196" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J197" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J198" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J199" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J200" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="199">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{DF60704F-06EF-4CE3-A73D-671CA5C8582E}">
       <formula1>IF(#REF!=#REF!,)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{E781FBFD-5C67-4BA1-B512-6F827E33AC2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F200" xr:uid="{EF58BAE9-00DD-475C-8E06-46701303EBC7}">
       <formula1>provinces</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{FB93B865-F2ED-4563-B5AA-A70D1B33E633}">
-      <formula1>INDIRECT(#REF!)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G200" xr:uid="{A8B05719-3380-4036-9CE3-D22188E1AD7F}">
+      <formula1>INDIRECT($J$200)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G199" xr:uid="{5EC8D449-986D-4626-8353-84FD3F67C901}">
+      <formula1>INDIRECT($J$199)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G198" xr:uid="{3AF34127-EE37-4F03-8307-0A17486DE9D1}">
+      <formula1>INDIRECT($J$198)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G197" xr:uid="{4522549F-D71B-402F-942D-984759C903E9}">
+      <formula1>INDIRECT($J$197)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G196" xr:uid="{C88D2760-581C-4310-9BA4-281508F195DE}">
+      <formula1>INDIRECT($J$196)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G195" xr:uid="{44F05894-0FAC-4A5A-8749-C30093D1A98F}">
+      <formula1>INDIRECT($J$195)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G194" xr:uid="{68DF4BB7-3643-4451-849B-EC75AB9DDA18}">
+      <formula1>INDIRECT($J$194)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G193" xr:uid="{60C36678-3411-447E-AB26-55B3CFF0B7BA}">
+      <formula1>INDIRECT($J$193)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G192" xr:uid="{945238E2-CB5A-41EB-BBB3-89D325FB3694}">
+      <formula1>INDIRECT($J$192)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G191" xr:uid="{E8FC016A-59AE-4EC7-BDA2-61AE145A3BC5}">
+      <formula1>INDIRECT($J$191)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G190" xr:uid="{F961112D-E1A9-4A76-8176-22FD55FCAE24}">
+      <formula1>INDIRECT($J$190)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G189" xr:uid="{73D51D4F-4006-425D-A953-6FE298135E4C}">
+      <formula1>INDIRECT($J$189)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G188" xr:uid="{144BEEBB-2348-4BAD-928F-CD8FE2FF3B94}">
+      <formula1>INDIRECT($J$188)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G187" xr:uid="{B64765C0-4ED6-487D-967B-7A4C65B73905}">
+      <formula1>INDIRECT($J$187)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G186" xr:uid="{A6C3C416-EDBB-4123-A3F9-32DD14D18F20}">
+      <formula1>INDIRECT($J$186)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G185" xr:uid="{59D0B4FB-7D62-485F-AC88-1B94C30B0140}">
+      <formula1>INDIRECT($J$185)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G184" xr:uid="{142607BA-CDA7-4C48-8C4A-68B2840681A1}">
+      <formula1>INDIRECT($J$184)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G183" xr:uid="{7354EE57-3EB7-458E-BEB1-AC4FB2BF9383}">
+      <formula1>INDIRECT($J$183)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G182" xr:uid="{D99CF1E9-7FAA-42D0-AB2D-2200D22C1B80}">
+      <formula1>INDIRECT($J$182)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G181" xr:uid="{AA0AD2D2-0946-436A-B028-D150755E386C}">
+      <formula1>INDIRECT($J$181)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G180" xr:uid="{0AFDDEE5-70AB-4022-91FB-DE147F31440C}">
+      <formula1>INDIRECT($J$180)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G179" xr:uid="{EF25BF40-A843-4475-98D5-122F17231661}">
+      <formula1>INDIRECT($J$179)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G178" xr:uid="{9A497585-BCE0-4FB1-B1C3-74041ED75E2D}">
+      <formula1>INDIRECT($J$178)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G177" xr:uid="{9D25D246-533D-4BB7-A65E-3AD754994EB9}">
+      <formula1>INDIRECT($J$177)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G176" xr:uid="{9161F2BE-B60E-433F-B8BB-839A612C3764}">
+      <formula1>INDIRECT($J$176)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G175" xr:uid="{940A71AF-0E29-448A-9DA0-9FE26DDE055E}">
+      <formula1>INDIRECT($J$175)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G174" xr:uid="{666FE06C-B346-4548-AE5C-2584145780BA}">
+      <formula1>INDIRECT($J$174)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G173" xr:uid="{A0D4226A-3D99-4AA0-A64F-F3BD635F93CB}">
+      <formula1>INDIRECT($J$173)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G172" xr:uid="{7CD37150-2DCB-4A8B-B108-D78F0B7C3E34}">
+      <formula1>INDIRECT($J$172)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G171" xr:uid="{213E702F-E5D0-4029-BF35-D0965FDD3648}">
+      <formula1>INDIRECT($J$171)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G170" xr:uid="{27AD76CF-8159-46FB-A335-83DEE50005E0}">
+      <formula1>INDIRECT($J$170)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G169" xr:uid="{3F6DC250-B19A-4B51-B26A-DB86F449E391}">
+      <formula1>INDIRECT($J$169)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G168" xr:uid="{44963A44-7DF1-47E2-9675-1F9C7F64F31E}">
+      <formula1>INDIRECT($J$168)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G167" xr:uid="{3F56098F-0907-4094-B218-6C0AA534DA3D}">
+      <formula1>INDIRECT($J$167)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G166" xr:uid="{20B677AB-68FD-4141-9A0C-491DF90B2900}">
+      <formula1>INDIRECT($J$166)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G165" xr:uid="{1BA866C5-9AF5-42A0-AC1F-8066E2194EA3}">
+      <formula1>INDIRECT($J$165)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G164" xr:uid="{E815A561-EFDA-4766-B322-9C06E881CDA7}">
+      <formula1>INDIRECT($J$164)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G163" xr:uid="{67CCF5C7-AE5D-4020-9F08-3299C8E979F9}">
+      <formula1>INDIRECT($J$163)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G162" xr:uid="{98576044-E3EC-4B7C-A7C6-0701F9E7A690}">
+      <formula1>INDIRECT($J$162)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G161" xr:uid="{A1545B7B-4CAE-49D8-AFC2-903ABEE5E7AF}">
+      <formula1>INDIRECT($J$161)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G160" xr:uid="{1E156386-DF9B-433C-8BE4-BBFB92A43BEA}">
+      <formula1>INDIRECT($J$160)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G159" xr:uid="{3A18818F-2116-4517-9779-969CA56F0AEE}">
+      <formula1>INDIRECT($J$159)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G158" xr:uid="{3DC284E6-15E0-4047-9FCD-91C7818E2C4B}">
+      <formula1>INDIRECT($J$158)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G157" xr:uid="{EF34650D-3977-4767-B45D-1CFA2F22FBA0}">
+      <formula1>INDIRECT($J$157)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G156" xr:uid="{22B9C47C-6B33-40DE-A155-C1046F96CFEF}">
+      <formula1>INDIRECT($J$156)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G155" xr:uid="{E27AFC1B-4E3B-4E59-9132-56CB4F79E963}">
+      <formula1>INDIRECT($J$155)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G154" xr:uid="{75DF7F08-DEDB-4CDF-9D0A-9160C3B7924C}">
+      <formula1>INDIRECT($J$154)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G153" xr:uid="{BA122427-305D-424D-8AF1-9DA0A10E195F}">
+      <formula1>INDIRECT($J$153)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G152" xr:uid="{A81BF8FC-39DD-48F8-9E0C-459427992B54}">
+      <formula1>INDIRECT($J$152)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G151" xr:uid="{CFCF5C7B-F7FE-4AD0-AEE9-D114929D5A73}">
+      <formula1>INDIRECT($J$151)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G150" xr:uid="{BDAC1F5B-BEE9-4DC7-B213-048D3E43995F}">
+      <formula1>INDIRECT($J$150)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G149" xr:uid="{B72F861B-0A60-44C0-97FB-60046F34FD31}">
+      <formula1>INDIRECT($J$149)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G148" xr:uid="{9F66E710-0ED8-4950-94F4-CBD746429265}">
+      <formula1>INDIRECT($J$148)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G147" xr:uid="{D527BCF8-0B13-4DEF-9BB6-730FBFEFD210}">
+      <formula1>INDIRECT($J$147)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G146" xr:uid="{2CED2F18-429E-47BE-83A1-6F286ADADE2D}">
+      <formula1>INDIRECT($J$146)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G145" xr:uid="{79F619D5-0B7B-467A-9F96-FBA74A385069}">
+      <formula1>INDIRECT($J$145)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G144" xr:uid="{9F1BC26F-152B-4086-93E5-6CBA4753190A}">
+      <formula1>INDIRECT($J$144)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G143" xr:uid="{D5D54B7E-092E-4576-9181-034C6D84320E}">
+      <formula1>INDIRECT($J$143)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G142" xr:uid="{80FAF31C-7EAB-47F8-A8CD-07A8E43E85F9}">
+      <formula1>INDIRECT($J$142)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G141" xr:uid="{F5429A74-EF78-47D0-8790-E39E4E1E64DD}">
+      <formula1>INDIRECT($J$141)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G140" xr:uid="{EB77D4A9-2725-45E6-BD9D-96A9D1B44504}">
+      <formula1>INDIRECT($J$140)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139" xr:uid="{C9284961-0428-4FEC-9E43-D1C2B2D97FE1}">
+      <formula1>INDIRECT($J$139)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G138" xr:uid="{4CFDEF0A-7B8A-4E3C-8C0C-3420AA311E7E}">
+      <formula1>INDIRECT($J$138)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G137" xr:uid="{0543EB84-05B4-49D9-99B7-644E2554F58C}">
+      <formula1>INDIRECT($J$137)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G136" xr:uid="{197629AA-819A-43CE-AC9A-10E0BB80CE26}">
+      <formula1>INDIRECT($J$136)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G135" xr:uid="{68423FA0-F790-48E4-B17A-470D5A7D3B13}">
+      <formula1>INDIRECT($J$135)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G134" xr:uid="{DF4484A1-2629-42F3-B3FD-AF1E14222978}">
+      <formula1>INDIRECT($J$134)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G133" xr:uid="{1C7DD189-91FD-455E-B4E8-A4BEDFA30C75}">
+      <formula1>INDIRECT($J$133)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132" xr:uid="{C074D52D-6A7F-4677-B782-74567F4FCF14}">
+      <formula1>INDIRECT($J$132)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G131" xr:uid="{7F4D949F-117F-4F48-8D96-08D91BFDDA6C}">
+      <formula1>INDIRECT($J$131)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G130" xr:uid="{92D8FA13-C1D9-46B5-AC63-3706E1157EF5}">
+      <formula1>INDIRECT($J$130)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G129" xr:uid="{FBF6BC07-3FCD-40FB-9873-459F2A26E840}">
+      <formula1>INDIRECT($J$129)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G128" xr:uid="{61A3E031-D00C-4046-AF1D-C9C451E81F6F}">
+      <formula1>INDIRECT($J$128)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127" xr:uid="{861E57A5-2D9D-4B80-9DEA-66F9F73AB2AE}">
+      <formula1>INDIRECT($J$127)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G126" xr:uid="{D2529A97-46FF-4B0F-BED8-7248E5E33E36}">
+      <formula1>INDIRECT($J$126)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G125" xr:uid="{30F3368E-2D9D-4CB9-A22C-7575C92E07CA}">
+      <formula1>INDIRECT($J$125)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G124" xr:uid="{ECFEE7AB-BBD8-4121-84D4-E440D4839935}">
+      <formula1>INDIRECT($J$124)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123" xr:uid="{0DBB9022-4704-4588-92C9-8C13A6BC20C6}">
+      <formula1>INDIRECT($J$123)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G122" xr:uid="{0656C233-3130-4686-A17E-FA68C7D2519B}">
+      <formula1>INDIRECT($J$122)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G121" xr:uid="{CC59F30E-E874-4961-BFEC-953B722A2BCC}">
+      <formula1>INDIRECT($J$121)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G120" xr:uid="{827A435C-5A6E-45D6-8241-C4E24B49C241}">
+      <formula1>INDIRECT($J$120)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G119" xr:uid="{D3BEFFB5-A874-42C3-804E-08ACC66D65A7}">
+      <formula1>INDIRECT($J$119)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G118" xr:uid="{8B2A08EA-87D6-4C5A-835A-E5437C01222D}">
+      <formula1>INDIRECT($J$118)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G117" xr:uid="{136307C8-5BF9-458F-BEBA-B8470B83EF0C}">
+      <formula1>INDIRECT($J$117)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G116" xr:uid="{4C3CFCCA-35BA-4921-AB59-15E829533CA3}">
+      <formula1>INDIRECT($J$116)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G115" xr:uid="{C865F153-2D05-4BCE-BE2F-38810ABB48B1}">
+      <formula1>INDIRECT($J$115)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G114" xr:uid="{AC654E40-C06A-4B04-AE38-591014600A2D}">
+      <formula1>INDIRECT($J$114)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G113" xr:uid="{FC6E3C28-8DA7-4DA1-9F22-64BB64BE1E34}">
+      <formula1>INDIRECT($J$113)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G112" xr:uid="{A20D5809-0F8B-4E85-8276-E427254C32F3}">
+      <formula1>INDIRECT($J$112)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G111" xr:uid="{691042B3-FE25-41F7-AE6F-07ECDD5E1A3D}">
+      <formula1>INDIRECT($J$111)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G110" xr:uid="{C25D809E-FC8D-4EED-BB09-9722D947E6B3}">
+      <formula1>INDIRECT($J$110)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G109" xr:uid="{D8C43A93-21DF-4D6D-9C59-2ADDF97194CB}">
+      <formula1>INDIRECT($J$109)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108" xr:uid="{50B261D2-CBEC-421E-B42F-9D45CAC7916E}">
+      <formula1>INDIRECT($J$108)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G107" xr:uid="{BCD62980-B4D1-4D70-8C71-24BD3003EDDD}">
+      <formula1>INDIRECT($J$107)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G106" xr:uid="{28D8427F-49F6-46C0-8514-AC974BBD562C}">
+      <formula1>INDIRECT($J$106)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G105" xr:uid="{90CC6570-2D36-442D-82AD-F211F9505C66}">
+      <formula1>INDIRECT($J$105)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G104" xr:uid="{49671A32-0DF7-40E1-BB75-333FEEC8FBAA}">
+      <formula1>INDIRECT($J$104)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G103" xr:uid="{BC20F022-3E72-4A68-9A21-462FE2B1E313}">
+      <formula1>INDIRECT($J$103)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G102" xr:uid="{30B5E9AA-3F1B-4158-B153-35553C44A2B3}">
+      <formula1>INDIRECT($J$102)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101" xr:uid="{6DBD7091-D6EC-4DEA-BB52-9A648AE191DB}">
+      <formula1>INDIRECT($J$101)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G100" xr:uid="{EA1A353C-F0C2-4175-A3B7-D8818741DD51}">
+      <formula1>INDIRECT($J$100)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G99" xr:uid="{71684E17-41FB-4CB8-A927-E080413C0CB2}">
+      <formula1>INDIRECT($J$99)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98" xr:uid="{EBF885CC-D113-49E4-B015-6489140829DA}">
+      <formula1>INDIRECT($J$98)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G97" xr:uid="{BD7DCFFE-A605-45BD-889A-CA2636BA1111}">
+      <formula1>INDIRECT($J$97)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G96" xr:uid="{B6851E48-BDFF-44F2-A807-9BF0C17BBBB1}">
+      <formula1>INDIRECT($J$96)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G95" xr:uid="{6F0C2B7C-6DD1-4955-9E56-6BD2B739DB97}">
+      <formula1>INDIRECT($J$95)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G94" xr:uid="{AC2B7F1C-AA44-4417-85CC-52055A3C23F9}">
+      <formula1>INDIRECT($J$94)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93" xr:uid="{484BC892-9C34-4D1C-9549-AD704BDD0BEA}">
+      <formula1>INDIRECT($J$93)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92" xr:uid="{00EB56B9-8A55-4316-9E72-BD758F2D547C}">
+      <formula1>INDIRECT($J$92)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G91" xr:uid="{B3DD7F95-B755-4A46-BEE1-C03309DD74E6}">
+      <formula1>INDIRECT($J$91)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90" xr:uid="{8A735150-2C03-4105-A589-DAFF5459F264}">
+      <formula1>INDIRECT($J$90)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89" xr:uid="{93B1AA05-F9FE-4214-AACB-69A6FE8AAFC7}">
+      <formula1>INDIRECT($J$89)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G88" xr:uid="{43767913-C84A-49FB-805D-08852156C693}">
+      <formula1>INDIRECT($J$88)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G87" xr:uid="{8BD99500-6849-418C-9487-F2F37387D7F7}">
+      <formula1>INDIRECT($J$87)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G86" xr:uid="{D7C27803-782A-44A3-902B-5BC5727CF486}">
+      <formula1>INDIRECT($J$86)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G85" xr:uid="{DC267613-E3B6-4D6D-858B-9F0870BF9A5F}">
+      <formula1>INDIRECT($J$85)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84" xr:uid="{36345A1F-2DC2-4B80-BD0D-89E116326C33}">
+      <formula1>INDIRECT($J$84)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83" xr:uid="{875A661B-E5E2-4DEA-977C-8C11DAA9B2C1}">
+      <formula1>INDIRECT($J$83)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82" xr:uid="{837E2C2C-4C55-4073-A35D-4527893F1DEA}">
+      <formula1>INDIRECT($J$82)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81" xr:uid="{F2AFFF48-FD64-48DE-8798-3270E66AE28E}">
+      <formula1>INDIRECT($J$81)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80" xr:uid="{4B775DE5-2239-4F70-A73C-DB6628A2D456}">
+      <formula1>INDIRECT($J$80)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G79" xr:uid="{C5AA5341-2515-498B-BC6A-6897429EE4DB}">
+      <formula1>INDIRECT($J$79)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G78" xr:uid="{F5484F2E-F182-473B-A8C3-BBB6C4A34F89}">
+      <formula1>INDIRECT($J$78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77" xr:uid="{139B5226-FB61-43AF-9E4A-2BACABE80CF7}">
+      <formula1>INDIRECT($J$77)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76" xr:uid="{FF4AD955-C290-4543-BB0F-A6630321443B}">
+      <formula1>INDIRECT($J$76)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G75" xr:uid="{636C5929-4110-4E37-AED2-76C14AB29390}">
+      <formula1>INDIRECT($J$75)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74" xr:uid="{14F0E42D-4C4C-45CE-867D-CBC10332B22D}">
+      <formula1>INDIRECT($J$74)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73" xr:uid="{E0302015-85B9-4130-8203-AF50C96D4EE2}">
+      <formula1>INDIRECT($J$73)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72" xr:uid="{1A2C5826-4EA3-4818-B168-FD463DAB2320}">
+      <formula1>INDIRECT($J$72)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71" xr:uid="{A3E004D0-F451-4F88-B276-6684F05E7578}">
+      <formula1>INDIRECT($J$71)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G70" xr:uid="{6A707A42-49C4-4269-9294-9E6C9D0AEE74}">
+      <formula1>INDIRECT($J$70)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69" xr:uid="{8202D755-7D6A-4E91-8BF2-A3B5E8C1ACE5}">
+      <formula1>INDIRECT($J$69)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68" xr:uid="{6E91CF1B-16B0-47EE-921F-2DF00479BB8A}">
+      <formula1>INDIRECT($J$68)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67" xr:uid="{2933C42C-8B68-4746-8777-E59ABB9B96D1}">
+      <formula1>INDIRECT($J$67)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66" xr:uid="{6BA966C2-3D9D-4380-8815-C83511997437}">
+      <formula1>INDIRECT($J$66)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65" xr:uid="{C0718130-9149-4BAA-AED7-DC6AAC62EA57}">
+      <formula1>INDIRECT($J$65)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64" xr:uid="{DF505A48-060E-4CD8-BC35-87D4B816207E}">
+      <formula1>INDIRECT($J$64)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63" xr:uid="{20E780B3-0606-4202-8B04-F5B050BBA266}">
+      <formula1>INDIRECT($J$63)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62" xr:uid="{8A08A27C-F7EF-4717-8AB4-27367B73C831}">
+      <formula1>INDIRECT($J$62)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61" xr:uid="{C5BB59C1-3E6F-4ED3-A2A2-33323BFEB13A}">
+      <formula1>INDIRECT($J$61)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60" xr:uid="{6AE35413-6271-403D-8EEF-86B5D0FFFF94}">
+      <formula1>INDIRECT($J$60)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59" xr:uid="{AD7A6B92-2D9B-4D44-A1F8-D4A165EEB63B}">
+      <formula1>INDIRECT($J$59)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58" xr:uid="{6DEA3765-C905-422C-B67F-7BE0275EBDD7}">
+      <formula1>INDIRECT($J$58)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57" xr:uid="{7583333B-97CD-4C52-85BB-E6B56FA1C907}">
+      <formula1>INDIRECT($J$57)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G56" xr:uid="{A9D25F4F-39EF-44E1-9F65-9177BD735544}">
+      <formula1>INDIRECT($J$56)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G55" xr:uid="{5AECA891-88F5-4108-B266-22414B950E8C}">
+      <formula1>INDIRECT($J$55)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54" xr:uid="{D507F218-6F04-4430-A1A4-56FF385FC05F}">
+      <formula1>INDIRECT($J$54)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{58BF5D36-AA40-4E54-84B7-A703489EC744}">
+      <formula1>INDIRECT($J$53)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52" xr:uid="{A9925E36-BB7A-4CBE-8045-DE59A999DB4E}">
+      <formula1>INDIRECT($J$52)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51" xr:uid="{92F78490-01E3-4EFD-9FB1-64FA258D2C23}">
+      <formula1>INDIRECT($J$51)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50" xr:uid="{DC185310-E2A8-4C5B-B431-DA1FE371DEA6}">
+      <formula1>INDIRECT($J$50)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49" xr:uid="{B2D86B7F-D26E-45C9-8182-1801ADD3ADCF}">
+      <formula1>INDIRECT($J$49)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48" xr:uid="{CE7B9CA9-2250-4295-9353-662BD549A9E0}">
+      <formula1>INDIRECT($J$48)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47" xr:uid="{76D7873B-3FFE-43EF-83D8-44E28E3B8DE8}">
+      <formula1>INDIRECT($J$47)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46" xr:uid="{7D8E0E7D-DDF2-4BDA-9A4A-CB0E11B86846}">
+      <formula1>INDIRECT($J$46)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45" xr:uid="{4FD58EE7-21FB-42A9-9E1C-6B0F5DC358C0}">
+      <formula1>INDIRECT($J$45)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44" xr:uid="{D9E8D1AC-1C2C-4745-B050-B9A6C2834C66}">
+      <formula1>INDIRECT($J$44)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G43" xr:uid="{CFD5800A-AC50-46EF-AF57-55BD7844B224}">
+      <formula1>INDIRECT($J$43)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42" xr:uid="{425A059D-422B-443E-B042-28ECB60DC806}">
+      <formula1>INDIRECT($J$42)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41" xr:uid="{8719214E-31B5-4EC9-8613-4B5D231CF6D3}">
+      <formula1>INDIRECT($J$41)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40" xr:uid="{AACA2EB3-3755-4BDE-8BEC-0DD72AD3A2DD}">
+      <formula1>INDIRECT($J$40)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39" xr:uid="{038AF692-F4E5-496C-A229-52C7C38399E6}">
+      <formula1>INDIRECT($J$39)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G38" xr:uid="{A5AF218C-F49E-4BF9-B597-1A5EF9D4FD63}">
+      <formula1>INDIRECT($J$38)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37" xr:uid="{F5BCA88C-B245-427A-9A60-6E99B3CC8283}">
+      <formula1>INDIRECT($J$37)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36" xr:uid="{17F9D38B-3B96-4421-B710-7FD83DC0E715}">
+      <formula1>INDIRECT($J$36)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35" xr:uid="{35F8D342-C399-4681-B828-7D51FF0E6A6E}">
+      <formula1>INDIRECT($J$35)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34" xr:uid="{D5B2621C-F3F2-4D33-B2E5-98D1A6BB5F89}">
+      <formula1>INDIRECT($J$34)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G33" xr:uid="{7048A3A1-6BDC-4D93-B1FE-7AB67A64765B}">
+      <formula1>INDIRECT($J$33)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32" xr:uid="{241A80B9-03E4-4784-89AD-93FACCF7EE5A}">
+      <formula1>INDIRECT($J$32)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31" xr:uid="{172FB2D1-1B94-44A9-9F87-9ED175B5F3ED}">
+      <formula1>INDIRECT($J$31)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G30" xr:uid="{B0CCC97F-D7C4-4867-BC5A-C27A53FDCAED}">
+      <formula1>INDIRECT($J$30)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29" xr:uid="{7E709C46-01E5-45A1-91F1-3DD92B83F9C9}">
+      <formula1>INDIRECT($J$29)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28" xr:uid="{DC558997-7AB9-4925-8D8E-33E4D18562EA}">
+      <formula1>INDIRECT($J$28)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27" xr:uid="{8D05D4D6-7FF6-4018-AD79-1FFEAC4BBB81}">
+      <formula1>INDIRECT($J$27)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26" xr:uid="{3C18D448-AB0B-461A-85BA-BA6F8C0E577F}">
+      <formula1>INDIRECT($J$26)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25" xr:uid="{0D6001FB-E2F9-42DE-89B9-188617204416}">
+      <formula1>INDIRECT($J$25)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24" xr:uid="{E80DC592-D5B1-41EA-8424-F85CD5E1C94F}">
+      <formula1>INDIRECT($J$24)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23" xr:uid="{C2EAAA16-609F-4299-BA68-F4ECE37094F8}">
+      <formula1>INDIRECT($J$23)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22" xr:uid="{2D834E66-DF07-404F-9B7B-EAD47AC9B336}">
+      <formula1>INDIRECT($J$22)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21" xr:uid="{0DED468B-24D8-4976-A213-5B36E92D0D4A}">
+      <formula1>INDIRECT($J$21)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G20" xr:uid="{6E49275B-B119-46DB-ACD1-B8F1F39498A4}">
+      <formula1>INDIRECT($J$20)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19" xr:uid="{DF44090F-A448-40C3-AFBB-448B03C7389A}">
+      <formula1>INDIRECT($J$19)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18" xr:uid="{F7A171D8-F9A7-4400-A991-BE28E9F3FC98}">
+      <formula1>INDIRECT($J$18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17" xr:uid="{6B3480A3-789D-4298-9CD3-DC4DD2077ABD}">
+      <formula1>INDIRECT($J$17)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16" xr:uid="{BC98EB1F-7798-44A4-8086-1E77AFC9601A}">
+      <formula1>INDIRECT($J$16)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15" xr:uid="{E22C2957-08AE-4EAC-BADC-D430374756F5}">
+      <formula1>INDIRECT($J$15)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14" xr:uid="{C1EC8A76-1792-41CF-AD2B-4C944D60A584}">
+      <formula1>INDIRECT($J$14)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13" xr:uid="{19F6C1E4-F334-4524-8735-2D3AC6EE02A8}">
+      <formula1>INDIRECT($J$13)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12" xr:uid="{B9D2E6E9-6153-46DD-905A-093C74624477}">
+      <formula1>INDIRECT($J$12)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9" xr:uid="{54433B9B-10FC-4602-B888-C7FE741CE691}">
+      <formula1>INDIRECT($J$9)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{6ED73A95-CE5C-42D2-AF93-F7BD7D7D7A92}">
+      <formula1>INDIRECT($J$7)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{6B5A6944-6021-4949-B721-5F8B02465001}">
+      <formula1>INDIRECT($J$6)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5" xr:uid="{606BF25B-8DF3-4A87-A309-06ABF7F64C20}">
+      <formula1>INDIRECT($J$5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{B59DD7F4-C9C8-47B5-A8EA-51260CAB7399}">
+      <formula1>INDIRECT($J$4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{06125A01-EC5B-42FD-87C2-4FAFD0E3DE9A}">
+      <formula1>INDIRECT($J$3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{633DEA53-2631-4564-9E6C-8DD1B80A907C}">
+      <formula1>INDIRECT($J$2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8 G10:G11" xr:uid="{28E5305D-36D5-4ECF-A424-F5FDE88448D2}">
+      <formula1>INDIRECT($J$8)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9176,6 +10818,18 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE21C307-D10D-425A-8588-FD1B09F3454F}">
+          <x14:formula1>
+            <xm:f>Data!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C200</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/assets/sampleExcel/sample(moshaver).xlsx
+++ b/assets/sampleExcel/sample(moshaver).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DF398-CDA2-4F6A-BDD6-6BEDF2BD58ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59475B06-F894-46BC-B3F0-D0299186B55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="2747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="2748">
   <si>
     <t>نام</t>
   </si>
@@ -8312,6 +8312,9 @@
   </si>
   <si>
     <t>chaharmahal</t>
+  </si>
+  <si>
+    <t>محدودیت ثبت نام</t>
   </si>
 </sst>
 </file>
@@ -8411,8 +8414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}" name="Table1524" displayName="Table1524" ref="F1:F200" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="F1:F200" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}" name="Table1524" displayName="Table1524" ref="F1:F201" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="F1:F201" xr:uid="{56C954D4-B75D-49FA-A373-0BE441C90B9B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{14EFB7CC-DBA1-4559-87C3-0C0370CEBB47}" name="استان"/>
   </tableColumns>
@@ -8421,8 +8424,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}" name="Table1636" displayName="Table1636" ref="G1:G200" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="G1:G200" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}" name="Table1636" displayName="Table1636" ref="G1:G201" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="G1:G201" xr:uid="{21E9561C-E532-409A-AF07-9BB1F5539683}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C4779FF2-84F8-40D4-855D-D7E6546EEB1A}" name="شهر"/>
   </tableColumns>
@@ -8823,10 +8826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B2D121-DBCD-427C-A027-144EEEC0F342}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8836,7 +8839,9 @@
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8860,6 +8865,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2747</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2744</v>
@@ -10212,12 +10220,18 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J201" t="e">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E3:G33,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="199">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{DF60704F-06EF-4CE3-A73D-671CA5C8582E}">
       <formula1>IF(#REF!=#REF!,)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F200" xr:uid="{EF58BAE9-00DD-475C-8E06-46701303EBC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{EF58BAE9-00DD-475C-8E06-46701303EBC7}">
       <formula1>provinces</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G200" xr:uid="{A8B05719-3380-4036-9CE3-D22188E1AD7F}">
@@ -10825,7 +10839,7 @@
           <x14:formula1>
             <xm:f>Data!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C200</xm:sqref>
+          <xm:sqref>C2:C201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
